--- a/docs/svg/svg_cinms_questions.xlsx
+++ b/docs/svg/svg_cinms_questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bbest/github/cinms/svg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A95AAC-692F-104C-BA65-D9C136184A75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A07ADEB-1B51-A444-8FE9-E9C8F7160E6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{CFBEFC9A-A18C-1A4E-A288-85BAE4D21E0C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{CFBEFC9A-A18C-1A4E-A288-85BAE4D21E0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -163,8 +163,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -192,8 +200,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C918433-72CD-1F4E-B6ED-4BD80F3DFE58}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:E20"/>
+    <sheetView tabSelected="1" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -577,7 +586,7 @@
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D4" t="s">
@@ -625,7 +634,7 @@
       <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
@@ -704,7 +713,7 @@
       <c r="B12" t="s">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D12" t="s">
@@ -803,7 +812,7 @@
       <c r="B18" t="s">
         <v>1</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
@@ -868,7 +877,7 @@
       <c r="B22" t="s">
         <v>1</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D22" t="s">
@@ -972,7 +981,7 @@
       <c r="B29" t="s">
         <v>1</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D29" t="s">
